--- a/data/data_matrixRDA.xlsx
+++ b/data/data_matrixRDA.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,7 +527,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>CN 1 2006</t>
+          <t>CN 2006-01-17</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>CN 2 2006</t>
+          <t>CN 2006-02-16</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>CN 3 2006</t>
+          <t>CN 2006-03-15</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>CN 4 2006</t>
+          <t>CN 2006-04-20</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>CN 5 2006</t>
+          <t>CN 2006-05-18</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>CN 6 2006</t>
+          <t>CN 2006-06-15</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>CN 7 2006</t>
+          <t>CN 2006-07-13</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>CN 8 2006</t>
+          <t>CN 2006-08-10</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>CN 9 2006</t>
+          <t>CN 2006-09-07</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>CN 10 2006</t>
+          <t>CN 2006-10-05</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>CN 11 2006</t>
+          <t>CN 2006-11-02</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>CN 11 2006</t>
+          <t>CN 2006-11-30</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>CN 12 2006</t>
+          <t>CN 2006-12-20</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>CN 1 2007</t>
+          <t>CN 2007-01-24</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>CN 2 2007</t>
+          <t>CN 2007-02-15</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>CN 3 2007</t>
+          <t>CN 2007-03-15</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>CN 4 2007</t>
+          <t>CN 2007-04-19</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>CN 5 2007</t>
+          <t>CN 2007-05-17</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>CN 6 2007</t>
+          <t>CN 2007-06-14</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>CN 7 2007</t>
+          <t>CN 2007-07-16</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>CN 8 2007</t>
+          <t>CN 2007-08-08</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>CN 9 2007</t>
+          <t>CN 2007-09-11</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>CN 10 2007</t>
+          <t>CN 2007-10-15</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>CN 11 2007</t>
+          <t>CN 2007-11-15</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>CN 12 2007</t>
+          <t>CN 2007-12-13</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>CN 1 2008</t>
+          <t>CN 2008-01-17</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>CN 2 2008</t>
+          <t>CN 2008-02-19</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>CN 3 2008</t>
+          <t>CN 2008-03-18</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>TP 1 2006</t>
+          <t>TP 2006-01-17</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>TP 2 2006</t>
+          <t>TP 2006-02-16</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>TP 3 2006</t>
+          <t>TP 2006-03-15</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>TP 4 2006</t>
+          <t>TP 2006-04-20</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>TP 5 2006</t>
+          <t>TP 2006-05-18</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>TP 6 2006</t>
+          <t>TP 2006-06-15</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>TP 7 2006</t>
+          <t>TP 2006-07-13</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>TP 8 2006</t>
+          <t>TP 2006-08-10</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>TP 10 2006</t>
+          <t>TP 2006-10-15</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>TP 11 2006</t>
+          <t>TP 2006-11-02</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>TP 11 2006</t>
+          <t>TP 2006-11-30</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>TP 12 2006</t>
+          <t>TP 2006-12-20</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>TP 1 2007</t>
+          <t>TP 2007-01-24</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>TP 2 2007</t>
+          <t>TP 2007-02-15</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>TP 3 2007</t>
+          <t>TP 2007-03-15</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>TP 4 2007</t>
+          <t>TP 2007-04-19</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>TP 5 2007</t>
+          <t>TP 2007-05-17</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>TP 6 2007</t>
+          <t>TP 2007-06-14</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>TP 7 2007</t>
+          <t>TP 2007-07-16</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>TP 8 2007</t>
+          <t>TP 2007-08-08</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>TP 9 2007</t>
+          <t>TP 2007-09-11</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>TP 10 2007</t>
+          <t>TP 2007-10-15</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>TP 11 2007</t>
+          <t>TP 2007-11-15</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>TP 12 2007</t>
+          <t>TP 2007-12-13</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>TP 1 2008</t>
+          <t>TP 2008-01-17</t>
         </is>
       </c>
     </row>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>TP 2 2008</t>
+          <t>TP 2008-02-19</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>TP 3 2008</t>
+          <t>TP 2008-03-18</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>MP 1 2006</t>
+          <t>MP 2006-01-17</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>MP 2 2006</t>
+          <t>MP 2006-02-16</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>MP 3 2006</t>
+          <t>MP 2006-03-15</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>MP 4 2006</t>
+          <t>MP 2006-04-20</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>MP 5 2006</t>
+          <t>MP 2006-05-18</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>MP 6 2006</t>
+          <t>MP 2006-06-15</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>MP 8 2006</t>
+          <t>MP 2006-08-10</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>MP 9 2006</t>
+          <t>MP 2006-09-07</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>MP 10 2006</t>
+          <t>MP 2006-10-05</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>MP 11 2006</t>
+          <t>MP 2006-11-02</t>
         </is>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>MP 11 2006</t>
+          <t>MP 2006-11-30</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>MP 12 2006</t>
+          <t>MP 2006-12-20</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>MP 1 2007</t>
+          <t>MP 2007-01-24</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>MP 2 2007</t>
+          <t>MP 2007-02-15</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>MP 3 2007</t>
+          <t>MP 2007-03-15</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>MP 4 2007</t>
+          <t>MP 2007-04-19</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>MP 5 2007</t>
+          <t>MP 2007-05-17</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>MP 6 2007</t>
+          <t>MP 2007-06-16</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>MP 7 2007</t>
+          <t>MP 2007-07-16</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>MP 8 2007</t>
+          <t>MP 2007-08-08</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>MP 9 2007</t>
+          <t>MP 2007-09-11</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>MP 10 2007</t>
+          <t>MP 2007-10-15</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>MP 11 2007</t>
+          <t>MP 2007-11-15</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>MP 12 2007</t>
+          <t>MP 2007-12-13</t>
         </is>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>MP 1 2008</t>
+          <t>MP 2008-01-17</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>MP 2 2008</t>
+          <t>MP 2008-02-19</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>MP 3 2008</t>
+          <t>MP 2008-03-18</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0.6452205882352942</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.2573529411764706</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -5987,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.03584558823529412</v>
+        <v>0.2665441176470588</v>
       </c>
       <c r="K84">
-        <v>1.774356617647059</v>
+        <v>0.01838235294117647</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.1254595588235294</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -6014,14 +6014,14 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <v>0.3046875000000001</v>
+        <v>0</v>
       </c>
       <c r="T84">
         <v>0</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>BP 1 2006</t>
+          <t>CH 2006-01-17</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1.564338235294118</v>
+        <v>4.486764705882354</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6054,16 +6054,16 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.2040441176470588</v>
+        <v>0.7147058823529413</v>
       </c>
       <c r="K85">
-        <v>6.189338235294118</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.06801470588235294</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -6081,14 +6081,14 @@
         <v>0</v>
       </c>
       <c r="S85">
-        <v>0.4761029411764706</v>
+        <v>0</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>BP 2 2006</t>
+          <t>CH 2006-02-16</t>
         </is>
       </c>
     </row>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0.5269607843137255</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.380514705882353</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6121,16 +6121,16 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.01225490196078432</v>
+        <v>1.224264705882353</v>
       </c>
       <c r="K86">
-        <v>0.5637254901960784</v>
+        <v>0.7941176470588237</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.02450980392156863</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -6145,17 +6145,17 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <v>0.01225490196078432</v>
+        <v>0</v>
       </c>
       <c r="S86">
-        <v>0.2818627450980392</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>BP 3 2006</t>
+          <t>CH 2006-03-15</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1.902573529411765</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6188,13 +6188,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.2536764705882353</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>3.340073529411765</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>0.4650735294117647</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -6212,17 +6212,17 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0.08455882352941178</v>
+        <v>0</v>
       </c>
       <c r="S87">
-        <v>0.1691176470588236</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>0.04227941176470589</v>
+        <v>0</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>BP 4 2006</t>
+          <t>CH 2006-04-20</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>11.41544117647059</v>
+        <v>3.823529411764706</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6255,16 +6255,16 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1.479779411764706</v>
+        <v>0.09558823529411767</v>
       </c>
       <c r="K88">
-        <v>23.25367647058824</v>
+        <v>1.433823529411765</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>2.536764705882353</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -6279,17 +6279,17 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.479779411764706</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>0.6213235294117648</v>
       </c>
       <c r="T88">
         <v>0</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>BP 5 2006</t>
+          <t>CH 2006-05-18</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>22.58088235294118</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1.830882352941176</v>
+        <v>0.02757352941176471</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -6322,16 +6322,16 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.1525735294117647</v>
+        <v>0.08272058823529412</v>
       </c>
       <c r="K89">
-        <v>2.746323529411765</v>
+        <v>0.08272058823529412</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1.220588235294118</v>
+        <v>0.009191176470588236</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -6349,14 +6349,14 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0.4577205882352941</v>
+        <v>0.01838235294117647</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>BP 6 2006</t>
+          <t>CH 2006-07-13</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0.2561274509803922</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -6389,16 +6389,16 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0.06985294117647059</v>
+        <v>0.01633986928104575</v>
       </c>
       <c r="K90">
-        <v>2.002450980392157</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>1.420343137254902</v>
+        <v>0.008169934640522876</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -6416,20 +6416,20 @@
         <v>0</v>
       </c>
       <c r="S90">
-        <v>0.6752450980392157</v>
+        <v>0</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>BP 7 2006</t>
+          <t>CH 2006-08-10</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.04411764705882353</v>
+        <v>0.05</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6459,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0.9117647058823529</v>
+        <v>2.925</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.8088235294117647</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -6483,20 +6483,20 @@
         <v>0</v>
       </c>
       <c r="S91">
-        <v>0.3235294117647059</v>
+        <v>0.025</v>
       </c>
       <c r="T91">
-        <v>0.1617647058823529</v>
+        <v>0</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>BP 8 2006</t>
+          <t>CH 2006-09-07</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.575</v>
+        <v>0</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.23</v>
+        <v>3.0375</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -6523,16 +6523,16 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.8433333333333334</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1.418333333333333</v>
+        <v>45.225</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.07666666666666666</v>
+        <v>24.6375</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -6550,20 +6550,20 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <v>2.261666666666667</v>
+        <v>4.725</v>
       </c>
       <c r="T92">
         <v>0</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>BP 9 2006</t>
+          <t>CH 2006-10-05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2.002450980392157</v>
+        <v>0</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.1317401960784314</v>
+        <v>0.9880514705882353</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -6590,10 +6590,10 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.05269607843137255</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>1.159313725490196</v>
+        <v>4.347426470588236</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -6617,26 +6617,26 @@
         <v>0</v>
       </c>
       <c r="S93">
-        <v>0.1580882352941176</v>
+        <v>5.730698529411764</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>BP 10 2006</t>
+          <t>CH 2006-11-02</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.1240808823529412</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>6.204044117647059</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>9.90808823529412</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -6657,16 +6657,16 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0.5790441176470589</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>1.530330882352941</v>
+        <v>8.897058823529413</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.08272058823529412</v>
+        <v>16.58088235294118</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -6684,14 +6684,14 @@
         <v>0</v>
       </c>
       <c r="S94">
-        <v>0.4963235294117647</v>
+        <v>0</v>
       </c>
       <c r="T94">
         <v>0</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>BP 11 2006</t>
+          <t>CH 2006-11-30</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>3.686274509803922</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>3.59375</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -6724,16 +6724,16 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0.8063725490196079</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>1.324754901960784</v>
+        <v>0.78125</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.8639705882352942</v>
+        <v>0.625</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -6751,26 +6751,26 @@
         <v>0</v>
       </c>
       <c r="S95">
-        <v>0.2303921568627451</v>
+        <v>0.0390625</v>
       </c>
       <c r="T95">
         <v>0</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>BP 11 2006</t>
+          <t>CH 2006-12-20</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0</v>
+        <v>0.00735294117647059</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.00857843137254902</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -6791,16 +6791,16 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.4975490196078432</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>0.0735294117647059</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -6818,26 +6818,26 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>0.05882352941176472</v>
       </c>
       <c r="T96">
         <v>0</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>BP 1 2007</t>
+          <t>CH 2007-01-24</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.1709558823529412</v>
+        <v>0</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.3077205882352941</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>2.791176470588236</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -6858,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.4786764705882354</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>0.2393382352941177</v>
+        <v>2.064705882352942</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.1481617647058824</v>
+        <v>0.03823529411764706</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6885,14 +6885,14 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>0.2676470588235295</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>BP 2 2007</t>
+          <t>CH 2007-02-15</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.1148897058823529</v>
+        <v>1.995588235294118</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -6925,16 +6925,16 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0.2182904411764706</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0.5629595588235294</v>
+        <v>1.860294117647059</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.5284926470588236</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6946,20 +6946,20 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0.01148897058823529</v>
+        <v>0</v>
       </c>
       <c r="R98">
         <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>1.014705882352941</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>BP 3 2007</t>
+          <t>CH 2007-03-15</t>
         </is>
       </c>
     </row>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.9803921568627452</v>
+        <v>3.252941176470589</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -6992,22 +6992,22 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0.4901960784313726</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>16.42156862745098</v>
+        <v>1.811764705882353</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>23.77450980392157</v>
+        <v>0.0411764705882353</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -7019,14 +7019,14 @@
         <v>0</v>
       </c>
       <c r="S99">
-        <v>6.862745098039216</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>0.0411764705882353</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>BP 4 2007</t>
+          <t>CH 2007-04-19</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>2.558823529411764</v>
+        <v>1.65</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -7059,16 +7059,16 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>0.9705882352941176</v>
+        <v>4.901470588235295</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.1323529411764706</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -7080,20 +7080,20 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>0.1764705882352941</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>0</v>
       </c>
       <c r="S100">
-        <v>0.04411764705882353</v>
+        <v>1.989705882352941</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>BP 5 2007</t>
+          <t>CH 2007-05-17</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.8455882352941176</v>
+        <v>0.07058823529411766</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -7126,16 +7126,16 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>0.211764705882353</v>
       </c>
       <c r="K101">
-        <v>15.0514705882353</v>
+        <v>1.929411764705883</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
       <c r="M101">
-        <v>1.183823529411765</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -7153,20 +7153,20 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0.2536764705882353</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>BP 6 2007</t>
+          <t>CH 2007-06-14</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.05514705882352941</v>
+        <v>0.075</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -7193,16 +7193,16 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K102">
-        <v>3.060661764705882</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.5238970588235294</v>
+        <v>0</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -7220,20 +7220,20 @@
         <v>0</v>
       </c>
       <c r="S102">
-        <v>1.433823529411765</v>
+        <v>0</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>BP 7 2007</t>
+          <t>CH 2007-07-16</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.349264705882353</v>
+        <v>0</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.4889705882352942</v>
+        <v>0.2102941176470589</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -7260,16 +7260,16 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>0.1941176470588236</v>
       </c>
       <c r="K103">
-        <v>1.676470588235294</v>
+        <v>0.1860294117647059</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.2794117647058824</v>
+        <v>0.00808823529411765</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -7287,20 +7287,20 @@
         <v>0</v>
       </c>
       <c r="S103">
-        <v>4.191176470588236</v>
+        <v>0</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>BP 8 2007</t>
+          <t>CH 2007-08-08</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.4411764705882353</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.7941176470588236</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -7327,19 +7327,19 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>0.07058823529411766</v>
       </c>
       <c r="K104">
-        <v>23.47058823529412</v>
+        <v>0.4705882352941178</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3529411764705882</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>0.04705882352941178</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -7354,20 +7354,20 @@
         <v>0</v>
       </c>
       <c r="S104">
-        <v>13.76470588235294</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>BP 9 2007</t>
+          <t>CH 2007-09-11</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0</v>
+        <v>0.0350140056022409</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -7379,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1.458333333333333</v>
+        <v>3.256302521008404</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="K105">
-        <v>17.08333333333334</v>
+        <v>1.365546218487395</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>20.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>BP 10 2007</t>
+          <t>CH 2007-10-15</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>8.411764705882355</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -7449,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.03529411764705883</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -7461,16 +7461,16 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>0.07941176470588236</v>
       </c>
       <c r="K106">
-        <v>2.007352941176471</v>
+        <v>0.5823529411764707</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>2.580882352941177</v>
+        <v>0.07058823529411766</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -7482,20 +7482,20 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>0.09558823529411767</v>
+        <v>0.06176470588235296</v>
       </c>
       <c r="R106">
         <v>0</v>
       </c>
       <c r="S106">
-        <v>0.3823529411764707</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>BP 11 2007</t>
+          <t>CH 2007-11-15</t>
         </is>
       </c>
     </row>
@@ -7516,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.493872549019608</v>
+        <v>0.1632352941176471</v>
       </c>
       <c r="G107">
-        <v>3.182598039215686</v>
+        <v>0.598529411764706</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -7528,16 +7528,16 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.05441176470588236</v>
       </c>
       <c r="K107">
-        <v>1.558823529411765</v>
+        <v>7.726470588235295</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>0.1632352941176471</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -7549,20 +7549,20 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.1088235294117647</v>
       </c>
       <c r="R107">
         <v>0</v>
       </c>
       <c r="S107">
-        <v>0.2598039215686275</v>
+        <v>0</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>BP 12 2007</t>
+          <t>CH 2007-12-13</t>
         </is>
       </c>
     </row>
@@ -7577,16 +7577,16 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0.01470588235294118</v>
+        <v>0.4718137254901961</v>
       </c>
       <c r="G108">
-        <v>0.6838235294117648</v>
+        <v>1.844362745098039</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -7595,10 +7595,10 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="K108">
-        <v>0.1691176470588236</v>
+        <v>2.830882352941177</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>0.0857843137254902</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -7622,14 +7622,14 @@
         <v>0</v>
       </c>
       <c r="S108">
-        <v>0.06617647058823531</v>
+        <v>0</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>BP 1 2008</t>
+          <t>CH 2008-01-17</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.01862745098039216</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.02450980392156863</v>
+        <v>0.6519607843137256</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -7662,16 +7662,16 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>0.06519607843137257</v>
       </c>
       <c r="K109">
-        <v>0.9191176470588236</v>
+        <v>0.4191176470588236</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>0.01862745098039216</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -7689,14 +7689,14 @@
         <v>0</v>
       </c>
       <c r="S109">
-        <v>0</v>
+        <v>0.05588235294117648</v>
       </c>
       <c r="T109">
         <v>0</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>BP 2 2008</t>
+          <t>CH 2008-02-19</t>
         </is>
       </c>
     </row>
@@ -7717,53 +7717,3738 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>4.450980392156863</v>
       </c>
       <c r="G110">
+        <v>2.392156862745098</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="K110">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0.215686274509804</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>CH 2008-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1.273897058823529</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0.5257352941176471</v>
+      </c>
+      <c r="K111">
+        <v>0.2426470588235294</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>CL 2006-01-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0.53125</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1.3125</v>
+      </c>
+      <c r="K112">
+        <v>1.6875</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0.28125</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>CL 2006-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0.2450980392156863</v>
+      </c>
+      <c r="K113">
+        <v>1.593137254901961</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0.3431372549019608</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>CL 2006-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>2.545343137254902</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0.1139705882352941</v>
+      </c>
+      <c r="K114">
+        <v>1.747549019607843</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0.03799019607843138</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>1.595588235294118</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>CL 2006-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0.5625</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="K115">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>CL 2006-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0.01633986928104575</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0.01633986928104575</v>
+      </c>
+      <c r="K116">
+        <v>0.03267973856209151</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>CL 2006-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1.513480392156863</v>
+      </c>
+      <c r="K117">
+        <v>0.1115196078431373</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0.01593137254901961</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>CL 2006-07-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0.4575163398692811</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1.372549019607843</v>
+      </c>
+      <c r="K118">
+        <v>4.052287581699347</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0.326797385620915</v>
+      </c>
+      <c r="N118">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0.3921568627450981</v>
+      </c>
+      <c r="T118">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>CL 2006-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>196.875</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>17.8125</v>
+      </c>
+      <c r="K119">
+        <v>61.875</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>13.125</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0.9375</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>CL 2006-09-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.4987745098039216</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0.5441176470588236</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>2.357843137254902</v>
+      </c>
+      <c r="K120">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0.1813725490196078</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0.6801470588235294</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>CL 2006-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0.142156862745098</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>5.544117647058823</v>
+      </c>
+      <c r="K121">
+        <v>0.1776960784313725</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0.3198529411764706</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0.2132352941176471</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>CL 2006-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.0931372549019608</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0.6519607843137256</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>5.774509803921569</v>
+      </c>
+      <c r="K122">
+        <v>0.1397058823529412</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>CL 2006-11-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0.9375000000000001</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>CL 2006-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0.06127450980392157</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0.8700980392156863</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>CL 2007-01-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0.1102941176470588</v>
+      </c>
+      <c r="G125">
+        <v>0.1348039215686275</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="K125">
+        <v>0.01225490196078432</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0.02450980392156863</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>CL 2007-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0.4019607843137256</v>
+      </c>
+      <c r="G126">
+        <v>5.979166666666668</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="K126">
+        <v>0.2009803921568628</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0.0502450980392157</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0.3014705882352942</v>
+      </c>
+      <c r="T126">
+        <v>0.2512254901960784</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>CL 2007-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0.2071428571428571</v>
+      </c>
+      <c r="G127">
+        <v>8.907142857142857</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="K127">
+        <v>2.071428571428571</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0.1035714285714286</v>
+      </c>
+      <c r="N127">
+        <v>0.1035714285714286</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0.1035714285714286</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0.6214285714285714</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>CL 2007-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0.125</v>
+      </c>
+      <c r="G128">
+        <v>1.3125</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0.15625</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0.625</v>
+      </c>
+      <c r="T128">
+        <v>0.15625</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>CL 2007-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0.01225490196078432</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="K129">
+        <v>0.4656862745098039</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0.07352941176470588</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>CL 2007-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>2.667738970588236</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>22.89292279411765</v>
+      </c>
+      <c r="K130">
+        <v>4.094669117647059</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0.6204044117647058</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0.2481617647058824</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>CL 2007-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>28.81433823529412</v>
+      </c>
+      <c r="B131">
+        <v>2.780330882352941</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0.2527573529411765</v>
+      </c>
+      <c r="K131">
+        <v>3.033088235294118</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0.2527573529411765</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>CL 2007-08-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>18.21576286764706</v>
+      </c>
+      <c r="B132">
+        <v>0.1206341911764706</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0.6031709558823529</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>2.171415441176471</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>2.292049632352941</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>CL 2007-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>0.01838235294117647</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0.625</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1.158088235294118</v>
+      </c>
+      <c r="K133">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>CL 2007-10-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0.1225490196078432</v>
+      </c>
+      <c r="K134">
+        <v>0.04084967320261439</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>CL 2007-11-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>2.003676470588236</v>
+      </c>
+      <c r="K135">
+        <v>0.1102941176470588</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>CL 2007-12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0.01838235294117647</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0.2757352941176471</v>
+      </c>
+      <c r="K136">
+        <v>0.2389705882352941</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>CL 2008-01-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0.03676470588235294</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>CL 2008-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0.157563025210084</v>
+      </c>
+      <c r="K138">
+        <v>1.129201680672269</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0.157563025210084</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>CL 2008-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0.6452205882352942</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0.03584558823529412</v>
+      </c>
+      <c r="K139">
+        <v>1.774356617647059</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0.1254595588235294</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0.3046875000000001</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>BP 2006-01-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>1.564338235294118</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0.2040441176470588</v>
+      </c>
+      <c r="K140">
+        <v>6.189338235294118</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0.06801470588235294</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0.4761029411764706</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>BP 2006-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0.5269607843137255</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0.01225490196078432</v>
+      </c>
+      <c r="K141">
+        <v>0.5637254901960784</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0.02450980392156863</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0.01225490196078432</v>
+      </c>
+      <c r="S141">
+        <v>0.2818627450980392</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>BP 2006-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>1.902573529411765</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0.2536764705882353</v>
+      </c>
+      <c r="K142">
+        <v>3.340073529411765</v>
+      </c>
+      <c r="L142">
+        <v>0.4650735294117647</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0.08455882352941178</v>
+      </c>
+      <c r="S142">
+        <v>0.1691176470588236</v>
+      </c>
+      <c r="T142">
+        <v>0.04227941176470589</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>BP 2006-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>11.41544117647059</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1.479779411764706</v>
+      </c>
+      <c r="K143">
+        <v>23.25367647058824</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>2.536764705882353</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.479779411764706</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>BP 2006-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>22.58088235294118</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>1.830882352941176</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0.1525735294117647</v>
+      </c>
+      <c r="K144">
+        <v>2.746323529411765</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1.220588235294118</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0.4577205882352941</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>BP 2006-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0.2561274509803922</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0.06985294117647059</v>
+      </c>
+      <c r="K145">
+        <v>2.002450980392157</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1.420343137254902</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0.6752450980392157</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>BP 2006-07-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0.8088235294117647</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="T146">
+        <v>0.1617647058823529</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>BP 2006-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.575</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0.23</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0.8433333333333334</v>
+      </c>
+      <c r="K147">
+        <v>1.418333333333333</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0.07666666666666666</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>2.261666666666667</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>BP 2006-09-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>2.002450980392157</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0.1317401960784314</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0.05269607843137255</v>
+      </c>
+      <c r="K148">
+        <v>1.159313725490196</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0.1580882352941176</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>BP 2006-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.1240808823529412</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>6.204044117647059</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0.5790441176470589</v>
+      </c>
+      <c r="K149">
+        <v>1.530330882352941</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0.08272058823529412</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0.4963235294117647</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>BP 2006-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>3.686274509803922</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0.8063725490196079</v>
+      </c>
+      <c r="K150">
+        <v>1.324754901960784</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0.8639705882352942</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0.2303921568627451</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>BP 2006-11-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0.00857843137254902</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0.4975490196078432</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>BP 2007-01-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.1709558823529412</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0.3077205882352941</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0.4786764705882354</v>
+      </c>
+      <c r="K152">
+        <v>0.2393382352941177</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0.1481617647058824</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>BP 2007-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0.1148897058823529</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0.2182904411764706</v>
+      </c>
+      <c r="K153">
+        <v>0.5629595588235294</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0.5284926470588236</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0.01148897058823529</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>BP 2007-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0.9803921568627452</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0.4901960784313726</v>
+      </c>
+      <c r="K154">
+        <v>16.42156862745098</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>23.77450980392157</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>6.862745098039216</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>BP 2007-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>2.558823529411764</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0.75</v>
+      </c>
+      <c r="K155">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0.1323529411764706</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>BP 2007-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0.8455882352941176</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>15.0514705882353</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1.183823529411765</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>0.2536764705882353</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>BP 2007-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.05514705882352941</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>3.060661764705882</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0.5238970588235294</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>1.433823529411765</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>BP 2007-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.349264705882353</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0.4889705882352942</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1.676470588235294</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0.2794117647058824</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>4.191176470588236</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>BP 2007-08-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0.7941176470588236</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>23.47058823529412</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>13.76470588235294</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>BP 2007-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1.458333333333333</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>17.08333333333334</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>BP 2007-10-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>8.411764705882355</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2.007352941176471</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>2.580882352941177</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0.09558823529411767</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0.3823529411764707</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>BP 2007-11-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>1.493872549019608</v>
+      </c>
+      <c r="G162">
+        <v>3.182598039215686</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1.558823529411765</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>0.2598039215686275</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>BP 2007-12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="G163">
+        <v>0.6838235294117648</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0.1691176470588236</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0.06617647058823531</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>BP 2008-01-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.02450980392156863</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0.9191176470588236</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>BP 2008-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
         <v>0.03125</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
         <v>1.828125</v>
       </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
         <v>0.0625</v>
       </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
         <v>0.21875</v>
       </c>
-      <c r="T110">
-        <v>0</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>BP 3 2008</t>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>BP 2008-03-18</t>
         </is>
       </c>
     </row>
